--- a/BalanceSheet/MGM_bal.xlsx
+++ b/BalanceSheet/MGM_bal.xlsx
@@ -507,16 +507,16 @@
         <v>82000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>9013000.0</v>
+        <v>88000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>9476000.0</v>
+        <v>97000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-462000.0</v>
+        <v>107000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-3322000.0</v>
+        <v>106000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>102888000.0</v>
@@ -1718,16 +1718,16 @@
         <v>161000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-932602000.0</v>
+        <v>143000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>190992000.0</v>
+        <v>150000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-63434000.0</v>
+        <v>122000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-577936000.0</v>
+        <v>203000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>235437000.0</v>
@@ -2952,16 +2952,16 @@
         <v>2155000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-31286000.0</v>
+        <v>2153000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-79668000.0</v>
+        <v>2164000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-147920000.0</v>
+        <v>2243000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>277221000.0</v>
+        <v>2388000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>2106506000.0</v>
@@ -4647,7 +4647,7 @@
         <v>14390000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>13279000000.0</v>
+        <v>8934296000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>13710301000.0</v>
@@ -4774,7 +4774,7 @@
         <v>20406000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>15609000000.0</v>
+        <v>11263900000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>14943870000.0</v>
